--- a/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
+++ b/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\aed_matlab_modeltools\TUFLOWFV\benthic tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Spinny/Sims/Hawkesbury/matlab/TUFLOWFV/benthic_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F011175-08A1-1744-868D-3346E9352A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,6 @@
     <t>MaterialZone</t>
   </si>
   <si>
-    <t>TRC_fs1</t>
-  </si>
-  <si>
-    <t>TRC_fs2</t>
-  </si>
-  <si>
     <t>MAC_halophila</t>
   </si>
   <si>
@@ -57,12 +52,18 @@
   </si>
   <si>
     <t>BIV_arthritica</t>
+  </si>
+  <si>
+    <t>NCS_fs1</t>
+  </si>
+  <si>
+    <t>NCS_fs2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,63 +374,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,7 +465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -499,7 +500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -534,7 +535,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -569,7 +570,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,7 +605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -639,7 +640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -674,7 +675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -709,7 +710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,7 +745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>

--- a/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
+++ b/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Spinny/Sims/Hawkesbury/matlab/TUFLOWFV/benthic_tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Hawkesbury\matlab\TUFLOWFV\benthic_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F011175-08A1-1744-868D-3346E9352A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MaterialZone</t>
-  </si>
-  <si>
-    <t>MAC_halophila</t>
-  </si>
-  <si>
-    <t>MAC_ruppia</t>
-  </si>
-  <si>
-    <t>MAC_zostera</t>
-  </si>
-  <si>
-    <t>PHY_mpb</t>
-  </si>
-  <si>
-    <t>MAG_chaetomorpha_ben</t>
-  </si>
-  <si>
-    <t>MAG_chaetomorpha_IP_ben</t>
-  </si>
-  <si>
-    <t>MAG_chaetomorpha_IN_ben</t>
-  </si>
-  <si>
-    <t>BIV_arthritica</t>
   </si>
   <si>
     <t>NCS_fs1</t>
@@ -63,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,63 +349,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,32 +391,8 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>70</v>
-      </c>
-      <c r="J2">
-        <v>80</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -475,32 +402,8 @@
       <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>51</v>
-      </c>
-      <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>71</v>
-      </c>
-      <c r="J3">
-        <v>81</v>
-      </c>
-      <c r="K3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -510,32 +413,8 @@
       <c r="C4">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>62</v>
-      </c>
-      <c r="I4">
-        <v>72</v>
-      </c>
-      <c r="J4">
-        <v>82</v>
-      </c>
-      <c r="K4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -545,32 +424,8 @@
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>63</v>
-      </c>
-      <c r="I5">
-        <v>73</v>
-      </c>
-      <c r="J5">
-        <v>83</v>
-      </c>
-      <c r="K5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -580,32 +435,8 @@
       <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>54</v>
-      </c>
-      <c r="H6">
-        <v>64</v>
-      </c>
-      <c r="I6">
-        <v>74</v>
-      </c>
-      <c r="J6">
-        <v>84</v>
-      </c>
-      <c r="K6">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -615,32 +446,8 @@
       <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>55</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
-      <c r="I7">
-        <v>75</v>
-      </c>
-      <c r="J7">
-        <v>85</v>
-      </c>
-      <c r="K7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -650,32 +457,8 @@
       <c r="C8">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>56</v>
-      </c>
-      <c r="H8">
-        <v>66</v>
-      </c>
-      <c r="I8">
-        <v>76</v>
-      </c>
-      <c r="J8">
-        <v>86</v>
-      </c>
-      <c r="K8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -685,32 +468,8 @@
       <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>57</v>
-      </c>
-      <c r="H9">
-        <v>67</v>
-      </c>
-      <c r="I9">
-        <v>77</v>
-      </c>
-      <c r="J9">
-        <v>87</v>
-      </c>
-      <c r="K9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -720,32 +479,8 @@
       <c r="C10">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>58</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="I10">
-        <v>78</v>
-      </c>
-      <c r="J10">
-        <v>88</v>
-      </c>
-      <c r="K10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -755,29 +490,357 @@
       <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>29</v>
       </c>
-      <c r="E11">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>39</v>
       </c>
-      <c r="F11">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
         <v>49</v>
       </c>
-      <c r="G11">
-        <v>59</v>
-      </c>
-      <c r="H11">
-        <v>69</v>
-      </c>
-      <c r="I11">
-        <v>79</v>
-      </c>
-      <c r="J11">
-        <v>89</v>
-      </c>
-      <c r="K11">
-        <v>99</v>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>101</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>102</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
+++ b/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
@@ -365,9 +365,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,6 +387,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +675,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="A42" sqref="A42:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -692,40 +692,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>9</v>
       </c>
     </row>
@@ -756,8 +756,8 @@
         <v>1</v>
       </c>
       <c r="I2" s="5">
-        <f>0 + (D2/400)</f>
-        <v>0.1</v>
+        <f>1 -  (D2/400)</f>
+        <v>0.9</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
@@ -798,8 +798,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I43" si="1">0 + (D3/400)</f>
-        <v>0.1</v>
+        <f t="shared" ref="I3:I43" si="1">1 -  (D3/400)</f>
+        <v>0.9</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -967,7 +967,7 @@
       </c>
       <c r="I7" s="15">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="I11" s="15">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J11" s="15">
         <v>0</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="11">
         <v>0</v>
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="14">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="I25" s="15">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J25" s="15">
         <v>0</v>
@@ -1738,43 +1738,43 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="14">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B26" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E26" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="F26" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14">
+      <c r="E26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
         <v>25</v>
       </c>
-      <c r="I26" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="15">
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
         <v>0</v>
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="4">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -2032,7 +2032,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="1">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -2158,7 +2158,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="1">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="1">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="1">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2368,7 +2368,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="10">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="11">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="4">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
@@ -2452,7 +2452,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="10">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="I43" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="11">
         <v>0</v>

--- a/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
+++ b/matlab/TUFLOWFV/benthic_tools/Benthic_Info.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Hawkesbury\matlab\TUFLOWFV\benthic_tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\TUFLOWFV\benthic_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18A674-28E9-412E-9D64-7BA2AFF5CDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17860"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="20">
   <si>
     <t>MaterialZone</t>
   </si>
@@ -82,11 +91,14 @@
   <si>
     <t>NCS_tau_0</t>
   </si>
+  <si>
+    <t>Cattai</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,11 +683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:L43"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="1"/>
@@ -2475,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="10">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I43" s="11">
         <f t="shared" si="1"/>
@@ -2494,13 +2506,172 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C44" s="4">
+        <v>360</v>
+      </c>
+      <c r="D44" s="4">
+        <f>400-C44</f>
+        <v>40</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43</v>
+      </c>
+      <c r="I44" s="5">
+        <f>1 -  (D44/400)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <f>E44</f>
+        <v>0.2</v>
+      </c>
+      <c r="L44" s="6">
+        <f>F44</f>
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>360</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D45:D47" si="4">400-C45</f>
+        <v>40</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>44</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ref="I45:I47" si="5">1 -  (D45/400)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <f>E45</f>
+        <v>0.2</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" ref="L45:L47" si="6">F45</f>
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>360</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f>E46</f>
+        <v>0.2</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>360</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>46</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <f>E47</f>
+        <v>0.2</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="6"/>
+        <v>1.5E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
